--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF10F8E-C860-4142-BB12-4CC249674E0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51AFD05-0D72-4BEF-B92F-ED668D1F1CFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,38 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
-  <si>
-    <t>Supervisor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>A S Madhukumar</t>
-  </si>
-  <si>
     <t>Machine Learning-based Interference Mitigation in a Multi-tier Networks</t>
   </si>
   <si>
     <t>Deep Learning-Driven Edge Caching for 5G-and-Beyond Industrial IoT Networks</t>
   </si>
   <si>
-    <t>Alexei Sourin</t>
-  </si>
-  <si>
     <t>Sonification of geometry 1</t>
   </si>
   <si>
-    <t>Arvind Easwaran</t>
-  </si>
-  <si>
     <t>Edge/Cloud Resource Management for Time-Sensitive Applications (2)</t>
   </si>
   <si>
-    <t>Bo An</t>
-  </si>
-  <si>
     <t>Deep Reinforcement Learning for Complex Environment</t>
   </si>
   <si>
@@ -66,58 +51,76 @@
     <t>Designing Negotiation Agents to Parcitipate in International Competition</t>
   </si>
   <si>
-    <t>Cai Wentong</t>
-  </si>
-  <si>
     <t>Creation of Meta-model for Agent-based Simulation Using Machine Learning Approach</t>
   </si>
   <si>
-    <t>Chen Change Loy</t>
-  </si>
-  <si>
     <t>Encoding Images to Text Prompts with CLIP</t>
   </si>
   <si>
-    <t>Chia Liang Tien</t>
-  </si>
-  <si>
     <t>Smart Monitor for Studio Photographer</t>
   </si>
   <si>
-    <t>Cong Gao</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developing a demonstration system for spatial data exploration and visualization </t>
   </si>
   <si>
     <t>Deep Learning Supported Location-aware Keyword Query</t>
   </si>
   <si>
-    <t>Douglas Leslie Maskell</t>
-  </si>
-  <si>
     <t>An AI based Li-ion fast battery charger for power tools</t>
   </si>
   <si>
     <t>A Li-ion fast battery charger</t>
   </si>
   <si>
-    <t>Dusit Niyato</t>
-  </si>
-  <si>
     <t>Metaverse for virtual education 1</t>
   </si>
   <si>
-    <t>Ke Yiping, Kelly</t>
-  </si>
-  <si>
     <t>Graph-based Deep Models for Image Semantic Segmentation</t>
   </si>
   <si>
-    <t>EUGE</t>
-  </si>
-  <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>ASSOURIN</t>
+  </si>
+  <si>
+    <t>ARVINDE</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>ASWTCAI</t>
+  </si>
+  <si>
+    <t>CCLOY</t>
+  </si>
+  <si>
+    <t>ASLTCHIA</t>
+  </si>
+  <si>
+    <t>GAOCONG</t>
+  </si>
+  <si>
+    <t>ASDOUGLAS</t>
+  </si>
+  <si>
+    <t>DNIYATO</t>
+  </si>
+  <si>
+    <t>YPKE</t>
+  </si>
+  <si>
+    <t>SupervisorID</t>
+  </si>
+  <si>
+    <t>StudentID</t>
   </si>
 </sst>
 </file>
@@ -174,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,158 +463,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51AFD05-0D72-4BEF-B92F-ED668D1F1CFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE012DE-27B5-4225-A428-671A4FFA18A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>StudentID</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +502,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
@@ -515,6 +520,9 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -527,6 +535,9 @@
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -539,6 +550,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -551,6 +565,9 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -563,6 +580,9 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -575,6 +595,9 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -587,6 +610,9 @@
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -599,6 +625,9 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -611,6 +640,9 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -623,6 +655,9 @@
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -635,6 +670,9 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -647,6 +685,9 @@
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -659,6 +700,9 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -671,8 +715,11 @@
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -682,6 +729,9 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE012DE-27B5-4225-A428-671A4FFA18A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555D19B-E135-46AF-8DD7-17E26B325309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -466,19 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74.44140625" customWidth="1"/>
     <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -491,11 +495,14 @@
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,8 +515,9 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,11 +528,12 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -535,11 +544,12 @@
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -550,11 +560,12 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -565,11 +576,12 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -580,11 +592,12 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -595,11 +608,12 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -610,11 +624,12 @@
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -625,11 +640,12 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -640,11 +656,12 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -655,11 +672,12 @@
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -670,11 +688,12 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -685,11 +704,12 @@
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -700,11 +720,12 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -715,11 +736,12 @@
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -730,7 +752,8 @@
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555D19B-E135-46AF-8DD7-17E26B325309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +518,9 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -528,7 +533,9 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
@@ -544,7 +551,9 @@
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
@@ -560,7 +569,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
@@ -576,7 +587,9 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
@@ -592,7 +605,9 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
@@ -608,7 +623,9 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
@@ -624,7 +641,9 @@
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" t="s">
         <v>32</v>
       </c>
@@ -640,7 +659,9 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
@@ -656,7 +677,9 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
@@ -672,7 +695,9 @@
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
@@ -688,7 +713,9 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" t="s">
         <v>32</v>
       </c>
@@ -704,7 +731,9 @@
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -720,7 +749,9 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
@@ -736,7 +767,9 @@
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
@@ -752,7 +785,9 @@
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" t="s">
         <v>32</v>
       </c>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -136,6 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +481,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,7 +507,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -523,7 +524,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -536,12 +537,12 @@
       <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -554,12 +555,12 @@
       <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -572,12 +573,12 @@
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -590,12 +591,12 @@
       <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -608,12 +609,12 @@
       <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -626,12 +627,12 @@
       <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -644,12 +645,12 @@
       <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -662,12 +663,12 @@
       <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -680,12 +681,12 @@
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -698,12 +699,12 @@
       <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -716,12 +717,12 @@
       <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -734,12 +735,12 @@
       <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -752,12 +753,12 @@
       <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -770,12 +771,12 @@
       <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -788,7 +789,7 @@
       <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE9FE1-AC8F-4B4D-BB04-EAED02E40F91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -82,39 +82,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>ASMADHUKUMAR</t>
-  </si>
-  <si>
-    <t>ASSOURIN</t>
-  </si>
-  <si>
-    <t>ARVINDE</t>
-  </si>
-  <si>
-    <t>BOAN</t>
-  </si>
-  <si>
-    <t>ASWTCAI</t>
-  </si>
-  <si>
-    <t>CCLOY</t>
-  </si>
-  <si>
-    <t>ASLTCHIA</t>
-  </si>
-  <si>
-    <t>GAOCONG</t>
-  </si>
-  <si>
-    <t>ASDOUGLAS</t>
-  </si>
-  <si>
-    <t>DNIYATO</t>
-  </si>
-  <si>
-    <t>YPKE</t>
   </si>
   <si>
     <t>SupervisorID</t>
@@ -136,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +113,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -186,11 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="D7" activeCellId="1" sqref="E4 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,22 +445,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -509,287 +468,224 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
+      <c r="E15" t="s">
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE9FE1-AC8F-4B4D-BB04-EAED02E40F91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>ASMADHUKUMAR</t>
+  </si>
+  <si>
+    <t>ASSOURIN</t>
+  </si>
+  <si>
+    <t>ARVINDE</t>
+  </si>
+  <si>
+    <t>BOAN</t>
+  </si>
+  <si>
+    <t>ASWTCAI</t>
+  </si>
+  <si>
+    <t>CCLOY</t>
+  </si>
+  <si>
+    <t>ASLTCHIA</t>
+  </si>
+  <si>
+    <t>GAOCONG</t>
+  </si>
+  <si>
+    <t>ASDOUGLAS</t>
+  </si>
+  <si>
+    <t>DNIYATO</t>
+  </si>
+  <si>
+    <t>YPKE</t>
   </si>
   <si>
     <t>SupervisorID</t>
@@ -103,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +146,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -147,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +475,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="E4 D7"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,22 +486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -468,224 +509,287 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>23</v>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>23</v>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>23</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B5A51-5545-4B1F-9874-91B47758E742}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -130,13 +130,20 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +153,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -186,11 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,21 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -501,294 +500,331 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="0"/>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="0"/>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B5A51-5545-4B1F-9874-91B47758E742}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -132,10 +132,10 @@
     <t>AVAILABLE</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>newtitle1</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -187,9 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +493,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -500,7 +508,7 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -807,24 +815,6 @@
         <v>34</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C19" s="0"/>
-      <c r="D19" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clare/Documents/GitHub/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE61274-9566-214E-BE98-F892E20FBF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -132,14 +132,24 @@
     <t>AVAILABLE</t>
   </si>
   <si>
+    <t>testing1</t>
+  </si>
+  <si>
     <t>newtitle1</t>
+  </si>
+  <si>
+    <t>testing2</t>
+  </si>
+  <si>
+    <t>newtitle2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +159,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -183,9 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -496,296 +514,367 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>newtitle1</t>
+  </si>
+  <si>
+    <t>testing2</t>
+  </si>
+  <si>
+    <t>newtitle2</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E17"/>
@@ -519,7 +525,9 @@
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" s="0"/>
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
@@ -537,7 +545,9 @@
       <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C3" s="0"/>
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
@@ -555,7 +565,9 @@
       <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" s="0"/>
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
@@ -573,7 +585,9 @@
       <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" s="0"/>
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
@@ -591,7 +605,9 @@
       <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" s="0"/>
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
@@ -609,7 +625,9 @@
       <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" s="0"/>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
@@ -627,7 +645,9 @@
       <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
@@ -645,7 +665,9 @@
       <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C9" s="0"/>
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
@@ -663,7 +685,9 @@
       <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C10" s="0"/>
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
@@ -681,7 +705,9 @@
       <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C11" s="0"/>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
@@ -699,7 +725,9 @@
       <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C12" s="0"/>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
@@ -717,7 +745,9 @@
       <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C13" s="0"/>
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
@@ -735,7 +765,9 @@
       <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C14" s="0"/>
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
@@ -753,7 +785,9 @@
       <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C15" s="0"/>
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
@@ -771,7 +805,9 @@
       <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C16" s="0"/>
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
@@ -789,7 +825,9 @@
       <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C17" s="0"/>
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
@@ -807,7 +845,9 @@
       <c r="B18" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C18" s="0"/>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="D18" t="s" s="0">
         <v>19</v>
       </c>
@@ -815,6 +855,26 @@
         <v>34</v>
       </c>
       <c r="F18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clare/Documents/GitHub/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE61274-9566-214E-BE98-F892E20FBF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>testing1</t>
   </si>
   <si>
     <t>newtitle1</t>
@@ -142,8 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +149,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -193,11 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -482,18 +470,18 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -508,313 +496,296 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="0"/>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="0"/>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="0"/>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="0"/>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="0"/>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="0"/>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="0"/>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="0"/>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="0"/>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" s="0"/>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="0"/>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="0"/>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="0"/>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C18" s="0"/>
-      <c r="D18" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="0">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36992F9-B611-498F-8E2C-0BCF66E767B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -132,16 +132,16 @@
     <t>AVAILABLE</t>
   </si>
   <si>
-    <t>testing1</t>
-  </si>
-  <si>
     <t>newtitle1</t>
   </si>
   <si>
-    <t>testing2</t>
-  </si>
-  <si>
     <t>newtitle2</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -199,11 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +491,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -514,7 +506,7 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -766,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>32</v>
@@ -786,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>32</v>
@@ -806,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>32</v>
@@ -826,55 +818,60 @@
         <v>16</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="n" s="0">
         <v>17.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36992F9-B611-498F-8E2C-0BCF66E767B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F794E489-B7B8-EA4F-9FF8-C8CE4C903A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -136,19 +136,12 @@
   </si>
   <si>
     <t>newtitle2</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,17 +473,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E13" sqref="E13:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -510,368 +503,350 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s" s="0">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,16 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,289 +510,290 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="0"/>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="0"/>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36992F9-B611-498F-8E2C-0BCF66E767B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5515C6-A17B-49DA-A619-28F8039ECA56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,25 +130,12 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>newtitle1</t>
-  </si>
-  <si>
-    <t>newtitle2</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G6" activeCellId="1" sqref="F7 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,367 +498,271 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5515C6-A17B-49DA-A619-28F8039ECA56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170E4330-E950-4BA5-82DD-31C2E4663161}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="F7 G6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,6 +504,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -521,6 +524,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
@@ -538,6 +544,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
@@ -555,6 +564,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
@@ -572,6 +584,9 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -589,11 +604,17 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -603,6 +624,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -620,6 +644,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -637,6 +664,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
@@ -654,6 +684,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -671,6 +704,9 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -688,6 +724,9 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
@@ -705,6 +744,9 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
@@ -722,6 +764,9 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
@@ -738,6 +783,9 @@
       </c>
       <c r="B16" t="s">
         <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,19 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -498,319 +505,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170E4330-E950-4BA5-82DD-31C2E4663161}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,20 +130,13 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +146,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -187,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,18 +475,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -500,327 +501,294 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,52 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>|YCHERN</t>
+  </si>
+  <si>
+    <t>||Y|C|H|E|R|N</t>
+  </si>
+  <si>
+    <t>||||Y|||C|||H|||E|||R|||N</t>
+  </si>
+  <si>
+    <t>||||||||Y|||||||C|||||||H|||||||E|||||||R|||||||N</t>
+  </si>
+  <si>
+    <t>||||||||||||||||Y|||||||||||||||C|||||||||||||||H|||||||||||||||E|||||||||||||||R|||||||||||||||N</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||N</t>
+  </si>
+  <si>
+    <t>CT113</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +520,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,289 +546,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F9" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F10" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F12" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F13" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F14" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F15" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F16" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -582,7 +585,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,13 +696,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>32</v>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -132,46 +132,13 @@
     <t>AVAILABLE</t>
   </si>
   <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
     <t>YCHERN</t>
   </si>
   <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
     <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>|YCHERN</t>
-  </si>
-  <si>
-    <t>||Y|C|H|E|R|N</t>
-  </si>
-  <si>
-    <t>||||Y|||C|||H|||E|||R|||N</t>
-  </si>
-  <si>
-    <t>||||||||Y|||||||C|||||||H|||||||E|||||||R|||||||N</t>
-  </si>
-  <si>
-    <t>||||||||||||||||Y|||||||||||||||C|||||||||||||||H|||||||||||||||E|||||||||||||||R|||||||||||||||N</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||N</t>
-  </si>
-  <si>
-    <t>CT113</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||Y|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||C|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||H|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||E|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||R|||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||N</t>
   </si>
 </sst>
 </file>
@@ -556,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,13 +563,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>32</v>
@@ -616,13 +583,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>32</v>
@@ -636,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>32</v>
@@ -656,13 +623,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>32</v>
@@ -676,13 +643,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>32</v>
@@ -696,13 +663,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>32</v>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,22 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +490,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,289 +516,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -132,13 +132,28 @@
     <t>AVAILABLE</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
     <t>RESERVED</t>
   </si>
   <si>
-    <t>YCHERN</t>
+    <t>||</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>||||||||</t>
   </si>
   <si>
     <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>||||||||||||||||</t>
   </si>
 </sst>
 </file>
@@ -523,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,10 +564,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -572,7 +587,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -592,7 +607,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,7 +627,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -632,7 +647,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,7 +667,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,7 +687,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -692,7 +707,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +727,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -732,7 +747,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +767,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,16 +798,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,16 +818,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,16 +838,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,37 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>||||||||</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>||||||||||||||||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +505,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,290 +531,323 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
+      <c r="E15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
+      <c r="E16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
+      <c r="E17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>32</v>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -132,28 +132,49 @@
     <t>AVAILABLE</t>
   </si>
   <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
     <t>|</t>
   </si>
   <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
     <t>||</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>||||</t>
   </si>
   <si>
     <t>||||||||</t>
   </si>
   <si>
-    <t>ALLOCATED</t>
+    <t>testing1</t>
   </si>
   <si>
     <t>||||||||||||||||</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>testint1</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>helloo</t>
   </si>
 </sst>
 </file>
@@ -497,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E17"/>
@@ -535,19 +556,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -564,10 +585,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,16 +599,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,7 +688,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,7 +768,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,7 +788,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -787,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,16 +819,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,16 +839,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,16 +859,56 @@
         <v>16</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>42</v>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>||||||||</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>||||||||||||||||</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>testint1</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>helloo</t>
   </si>
 </sst>
 </file>
@@ -482,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E17"/>
@@ -520,7 +556,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>36</v>
@@ -532,7 +568,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -552,7 +588,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -563,16 +599,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -592,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -632,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,7 +688,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -692,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -732,7 +768,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +788,7 @@
         <v>34</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,7 +828,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,7 +848,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,6 +868,46 @@
         <v>34</v>
       </c>
       <c r="F17" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC2252-AE87-F342-9B4D-2BBD4BF09935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Machine Learning-based Interference Mitigation in a Multi-tier Networks</t>
-  </si>
-  <si>
     <t>Deep Learning-Driven Edge Caching for 5G-and-Beyond Industrial IoT Networks</t>
   </si>
   <si>
@@ -132,57 +129,14 @@
     <t>AVAILABLE</t>
   </si>
   <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>||||</t>
-  </si>
-  <si>
-    <t>||||||||</t>
-  </si>
-  <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>||||||||||||||||</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>testint1</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
-  </si>
-  <si>
-    <t>helloo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +146,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -232,11 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -518,397 +464,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>32</v>
+      <c r="E17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="40">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,28 @@
   </si>
   <si>
     <t>testint1</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +488,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,269 +514,323 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
+      <c r="E17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>||</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>||||||||YCHERN|</t>
+  </si>
+  <si>
+    <t>||||||||</t>
   </si>
 </sst>
 </file>
@@ -521,16 +530,16 @@
         <v>34</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,7 +559,7 @@
         <v>33</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,7 +579,7 @@
         <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -590,7 +599,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -610,7 +619,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -630,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,7 +659,7 @@
         <v>33</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -670,7 +679,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -690,7 +699,7 @@
         <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +719,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -730,7 +739,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -790,7 +799,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -810,7 +819,7 @@
         <v>33</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,7 +839,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC2252-AE87-F342-9B4D-2BBD4BF09935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8E65-AF75-6640-9A4A-ED861E85F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,37 +130,12 @@
   </si>
   <si>
     <t>testint1</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>||||</t>
-  </si>
-  <si>
-    <t>||||||||YCHERN|</t>
-  </si>
-  <si>
-    <t>||||||||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,14 +467,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.5"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.1640625"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -523,323 +498,275 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>41</v>
+      <c r="E2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>42</v>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>42</v>
+      <c r="E4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>42</v>
+      <c r="E5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>42</v>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>42</v>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>42</v>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>42</v>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>42</v>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>42</v>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>42</v>
+      <c r="E12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>42</v>
+      <c r="E13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>42</v>
+      <c r="E14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>42</v>
+      <c r="E15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>42</v>
+      <c r="E16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>42</v>
+      <c r="E17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8E65-AF75-6640-9A4A-ED861E85F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B15E4-D741-4639-9F58-1B9BF99853FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,25 @@
   </si>
   <si>
     <t>testint1</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>Hello, John,</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,17 +480,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -497,276 +510,324 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
+      <c r="E17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B15E4-D741-4639-9F58-1B9BF99853FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Machine Learning-based Interference Mitigation in a Multi-tier Networks</t>
+  </si>
+  <si>
     <t>Deep Learning-Driven Edge Caching for 5G-and-Beyond Industrial IoT Networks</t>
   </si>
   <si>
@@ -127,29 +130,13 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>testint1</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>Hello, John,</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +146,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -193,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -480,354 +475,321 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>31</v>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF14DBE-FF91-41EA-A2C4-2E9734BF1AF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -130,13 +130,26 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>testing2</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
+  </si>
+  <si>
+    <t>New Title</t>
+  </si>
+  <si>
+    <t>YCHERN,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -186,11 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,21 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -501,294 +506,367 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF14DBE-FF91-41EA-A2C4-2E9734BF1AF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,26 +130,13 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>testing2</t>
-  </si>
-  <si>
-    <t>UNAVAILABLE</t>
-  </si>
-  <si>
-    <t>New Title</t>
-  </si>
-  <si>
-    <t>YCHERN,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +146,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -193,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -477,21 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -506,367 +501,294 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="0">
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,16 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,289 +510,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,16 +130,12 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,9 +480,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -510,322 +506,289 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,22 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,9 +490,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.44140625"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,289 +516,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9F58E-EB79-644B-BA38-4644D440779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,23 +130,13 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +146,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -196,11 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,18 +467,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -511,327 +493,324 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,28 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +488,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,319 +514,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4F374-8FAD-714F-9003-A82E067B7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9F58E-EB79-644B-BA38-4644D440779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,28 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,14 +483,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,316 +514,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9F58E-EB79-644B-BA38-4644D440779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4F374-8FAD-714F-9003-A82E067B7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,28 +130,12 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>KOH1</t>
-  </si>
-  <si>
-    <t>UNAVAILABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,14 +467,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.5"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.1640625"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -514,322 +498,316 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23D639-F9B7-461E-BFEF-5D8DF87AF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -139,8 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +149,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -190,11 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -479,18 +470,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.44140625"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.109375"/>
+    <col min="2" max="2" width="74.453125" customWidth="1"/>
+    <col min="3" max="4" width="32.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -505,327 +496,324 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23D639-F9B7-461E-BFEF-5D8DF87AF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB09BB-BBAE-4344-B893-8FA1C5F12B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,31 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>YCHERN</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>ASJMZHENG</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning for Complex Environment 2</t>
+  </si>
+  <si>
+    <t>YCHERN,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +491,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,316 +517,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="E6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="36">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,16 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,9 +476,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,316 +502,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4F374-8FAD-714F-9003-A82E067B7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E703A18-51C0-7141-B60E-5F3E39C2428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,16 +130,12 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,14 +467,14 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.5"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.1640625"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -502,322 +498,322 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -130,12 +130,34 @@
   </si>
   <si>
     <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>newtest1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>ALLOCATED</t>
+  </si>
+  <si>
+    <t>KOH1</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E8"/>
@@ -472,9 +494,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="74.5"/>
+    <col min="3" max="4" customWidth="true" width="32.6640625"/>
+    <col min="5" max="5" customWidth="true" width="10.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,322 +520,362 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4F374-8FAD-714F-9003-A82E067B7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F373C6A-BCD3-412F-BEEB-F5241CC98821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -130,32 +130,13 @@
   </si>
   <si>
     <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>ASJMZHENG</t>
-  </si>
-  <si>
-    <t>Deep Reinforcement Learning for Complex Environment 2</t>
-  </si>
-  <si>
-    <t>YCHERN,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +146,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -199,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -486,18 +475,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.5"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.1640625"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -512,327 +501,294 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>UNAVAILABLE</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>testchange</t>
+  </si>
+  <si>
+    <t>newproject</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E8"/>
@@ -613,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>32</v>
@@ -624,13 +633,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>39</v>
@@ -653,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>32</v>
@@ -873,9 +882,49 @@
         <v>22</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>32</v>
       </c>
     </row>

--- a/App/data/rollover_project.xlsx
+++ b/App/data/rollover_project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liekzhewong/Desktop/Desktop - Liek’s MacBook Pro/SC2002/OOP-FYP-Management-Project/App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E703A18-51C0-7141-B60E-5F3E39C2428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A699084-49DD-4638-9B48-8C14ADFCE4F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Deep Reinforcement Learning for Complex Environment</t>
   </si>
   <si>
-    <t>Build Software Agents for Power Trading Agent Competition</t>
-  </si>
-  <si>
     <t>Designing Negotiation Agents to Parcitipate in International Competition</t>
   </si>
   <si>
@@ -132,41 +129,13 @@
     <t>AVAILABLE</t>
   </si>
   <si>
-    <t>newtest1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>ALLOCATED</t>
-  </si>
-  <si>
-    <t>KOH1</t>
-  </si>
-  <si>
-    <t>UNAVAILABLE</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>testchange</t>
-  </si>
-  <si>
-    <t>newproject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,437 +464,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="74.5"/>
-    <col min="3" max="4" customWidth="true" width="32.6640625"/>
-    <col min="5" max="5" customWidth="true" width="10.1640625"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>32</v>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
